--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="12" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="123" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -563,10 +563,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -619,22 +619,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -759,19 +759,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -790,19 +790,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -843,10 +843,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1163,13 +1163,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1191,13 +1191,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1359,13 +1359,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1375,10 +1375,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1403,13 +1403,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1431,10 +1431,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1443,13 +1443,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1462,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1471,13 +1471,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1487,13 +1487,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1543,13 +1543,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1571,25 +1571,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1599,25 +1599,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1633,19 +1633,19 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1661,19 +1661,19 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1689,19 +1689,19 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1711,10 +1711,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1919,13 +1919,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1947,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1963,25 +1963,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1991,25 +1991,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2103,16 +2103,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -2187,22 +2187,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2227,10 +2227,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -2243,22 +2243,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -2271,22 +2271,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -2299,25 +2299,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2327,25 +2327,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2355,19 +2355,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2439,10 +2439,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2495,10 +2495,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -2551,25 +2551,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2579,13 +2579,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2607,13 +2607,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2635,13 +2635,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2663,22 +2663,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2691,19 +2691,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2719,25 +2719,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2747,25 +2747,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2775,7 +2775,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2790,10 +2790,10 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2815,13 +2815,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2831,25 +2831,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,8 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="12" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="123" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -488,16 +488,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -516,16 +516,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -541,19 +541,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -563,25 +563,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -619,25 +619,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -647,25 +647,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -684,16 +684,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -703,7 +703,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -759,7 +759,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -771,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -799,13 +799,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -843,10 +843,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -871,10 +871,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1073,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1107,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1135,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1157,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -1185,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1353,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1375,25 +1375,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1403,25 +1403,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1431,10 +1431,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1443,13 +1443,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1459,25 +1459,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1490,16 +1490,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1518,16 +1518,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1546,16 +1546,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1599,16 +1599,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1633,13 +1633,13 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1919,13 +1919,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1935,7 +1935,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1947,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1963,25 +1963,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1991,25 +1991,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2103,16 +2103,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2187,25 +2187,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2215,7 +2215,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2227,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2243,25 +2243,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2271,25 +2271,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2299,19 +2299,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -2327,19 +2327,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2355,19 +2355,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2439,10 +2439,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -2451,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2495,10 +2495,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2507,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -2569,7 +2569,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2579,22 +2579,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2691,13 +2691,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -2709,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2719,22 +2719,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -2747,22 +2747,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2775,16 +2775,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -2803,16 +2803,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
@@ -2831,10 +2831,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -31,7 +31,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -46,6 +46,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00DDEED5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BBDDAA"/>
       </patternFill>
     </fill>
   </fills>
@@ -67,13 +72,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -574,17 +580,17 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
+      <c r="B5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>0</v>
@@ -602,23 +608,23 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0</v>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>0</v>
@@ -639,14 +645,14 @@
       <c r="D7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
+      <c r="E7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>0</v>
@@ -667,14 +673,14 @@
       <c r="D8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0</v>
+      <c r="E8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>0</v>
@@ -695,14 +701,14 @@
       <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>0</v>
@@ -717,20 +723,20 @@
       <c r="B10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="C10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>0</v>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>0</v>
@@ -742,23 +748,23 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>0</v>
+      <c r="B11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>0</v>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>0</v>
@@ -770,23 +776,23 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>0</v>
+      <c r="B12" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>0</v>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>0</v>
@@ -798,8 +804,8 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>0</v>
+      <c r="B13" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>1</v>
@@ -807,14 +813,14 @@
       <c r="D13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>0</v>
+      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>0</v>
@@ -826,8 +832,8 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>0</v>
+      <c r="B14" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>1</v>
@@ -835,14 +841,14 @@
       <c r="D14" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>0</v>
+      <c r="E14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>0</v>
@@ -854,14 +860,14 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>0</v>
+      <c r="B15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="E15" s="2" t="n">
         <v>0</v>
@@ -888,8 +894,8 @@
       <c r="C16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>0</v>
+      <c r="D16" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>0</v>
@@ -1134,23 +1140,23 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>0</v>
+      <c r="B25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>0</v>
@@ -1162,23 +1168,23 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>0</v>
+      <c r="B26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>0</v>
@@ -1190,23 +1196,23 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>0</v>
+      <c r="B27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>0</v>
@@ -1370,8 +1376,8 @@
       <c r="E4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="3" t="n">
-        <v>1</v>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -1386,20 +1392,20 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>1</v>
+      <c r="B5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>0</v>
@@ -1414,23 +1420,23 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="n">
-        <v>0</v>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>0</v>
@@ -1451,14 +1457,14 @@
       <c r="D7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
+      <c r="E7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
+      <c r="G7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>0</v>
@@ -1479,14 +1485,14 @@
       <c r="D8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0</v>
+      <c r="E8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>0</v>
@@ -1507,14 +1513,14 @@
       <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>0</v>
@@ -1541,8 +1547,8 @@
       <c r="F10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="n">
-        <v>0</v>
+      <c r="G10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>0</v>
@@ -1554,11 +1560,11 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
+      <c r="B11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -1569,8 +1575,8 @@
       <c r="F11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="2" t="n">
-        <v>0</v>
+      <c r="G11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>0</v>
@@ -1582,11 +1588,11 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>0</v>
+      <c r="B12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -1597,8 +1603,8 @@
       <c r="F12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="G12" s="2" t="n">
-        <v>0</v>
+      <c r="G12" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>0</v>
@@ -1610,23 +1616,23 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
+      <c r="B13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>0</v>
+      <c r="F13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>0</v>
@@ -1638,26 +1644,26 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>0</v>
+      <c r="B14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1666,26 +1672,26 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>0</v>
+      <c r="B15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1700,20 +1706,20 @@
       <c r="C16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>0</v>
+      <c r="D16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1731,17 +1737,17 @@
       <c r="D17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>0</v>
+      <c r="E17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1759,17 +1765,17 @@
       <c r="D18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>0</v>
+      <c r="E18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1946,23 +1952,23 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>0</v>
+      <c r="B25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>0</v>
@@ -1974,23 +1980,23 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>0</v>
+      <c r="B26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>0</v>
@@ -2002,23 +2008,23 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>0</v>
+      <c r="B27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>0</v>
@@ -2198,17 +2204,17 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
+      <c r="B5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>0</v>
@@ -2226,23 +2232,23 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>0</v>
+      <c r="B6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H6" s="2" t="n">
         <v>0</v>
@@ -2263,14 +2269,14 @@
       <c r="D7" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>0</v>
+      <c r="E7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>0</v>
@@ -2291,14 +2297,14 @@
       <c r="D8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0</v>
+      <c r="E8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>0</v>
@@ -2319,14 +2325,14 @@
       <c r="D9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>0</v>
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>0</v>
@@ -2350,11 +2356,11 @@
       <c r="E10" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>0</v>
+      <c r="F10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>0</v>
@@ -2366,11 +2372,11 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
+      <c r="B11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -2378,11 +2384,11 @@
       <c r="E11" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>0</v>
+      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>0</v>
@@ -2394,11 +2400,11 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>0</v>
+      <c r="B12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -2406,11 +2412,11 @@
       <c r="E12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>0</v>
+      <c r="F12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>0</v>
@@ -2422,23 +2428,23 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
+      <c r="B13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>0</v>
+      <c r="F13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>0</v>
@@ -2450,26 +2456,26 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>0</v>
+      <c r="B14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2478,26 +2484,26 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>0</v>
+      <c r="B15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -2512,20 +2518,20 @@
       <c r="C16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>0</v>
+      <c r="D16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -2543,17 +2549,17 @@
       <c r="D17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>0</v>
+      <c r="E17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2571,17 +2577,17 @@
       <c r="D18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>0</v>
+      <c r="E18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2758,23 +2764,23 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>0</v>
+      <c r="B25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>0</v>
@@ -2786,23 +2792,23 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>0</v>
+      <c r="B26" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>0</v>
@@ -2814,23 +2820,23 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>0</v>
+      <c r="B27" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>0</v>
@@ -2842,20 +2848,20 @@
           <t>22:00</t>
         </is>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>0</v>
+      <c r="B28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>1</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>0</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Location 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Location 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Location 3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -31,7 +31,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -40,17 +40,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00DDEED5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BBDDAA"/>
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -72,14 +67,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -497,24 +491,24 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -525,24 +519,24 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -553,24 +547,24 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -580,25 +574,25 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="n">
+      <c r="B5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -608,25 +602,25 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="n">
+      <c r="B6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -637,24 +631,24 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -665,24 +659,24 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -693,24 +687,24 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -721,24 +715,24 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -748,25 +742,25 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="n">
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -776,25 +770,25 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="n">
+      <c r="B12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -804,25 +798,25 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="n">
+      <c r="B13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -832,25 +826,25 @@
           <t>15:00</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="n">
+      <c r="B14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -860,25 +854,25 @@
           <t>15:30</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="n">
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -889,24 +883,24 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -917,24 +911,24 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -945,24 +939,24 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -973,24 +967,24 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1001,24 +995,24 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1029,24 +1023,24 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1057,24 +1051,24 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1085,24 +1079,24 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1113,24 +1107,24 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1140,25 +1134,25 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3" t="n">
+      <c r="B25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1168,25 +1162,25 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3" t="n">
+      <c r="B26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1196,25 +1190,25 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3" t="n">
+      <c r="B27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1225,24 +1219,24 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1309,24 +1303,24 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1337,24 +1331,24 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1365,24 +1359,24 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1392,25 +1386,25 @@
           <t>10:30</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="n">
+      <c r="B5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1420,25 +1414,25 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="n">
+      <c r="B6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1449,24 +1443,24 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1477,24 +1471,24 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1505,24 +1499,24 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1532,25 +1526,25 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="n">
+      <c r="B10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1561,24 +1555,24 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1589,24 +1583,24 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1617,24 +1611,24 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1645,25 +1639,25 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1673,25 +1667,25 @@
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1700,26 +1694,26 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="n">
+      <c r="B16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1728,26 +1722,26 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="n">
+      <c r="B17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1756,26 +1750,26 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="n">
+      <c r="B18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1784,25 +1778,25 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2" t="n">
+      <c r="B19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,25 +1806,25 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="n">
+      <c r="B20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1840,25 +1834,25 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="n">
+      <c r="B21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1868,25 +1862,25 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="n">
+      <c r="B22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1896,25 +1890,25 @@
           <t>19:30</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2" t="n">
+      <c r="B23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1924,25 +1918,25 @@
           <t>20:00</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2" t="n">
+      <c r="B24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1953,24 +1947,24 @@
         </is>
       </c>
       <c r="B25" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1981,24 +1975,24 @@
         </is>
       </c>
       <c r="B26" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2008,25 +2002,25 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3" t="n">
+      <c r="B27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2037,24 +2031,24 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2120,25 +2114,25 @@
           <t>9:00</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="B2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2148,25 +2142,25 @@
           <t>9:30</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="n">
+      <c r="B3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,25 +2170,25 @@
           <t>10:00</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="n">
+      <c r="B4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2205,24 +2199,24 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2233,24 +2227,24 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2260,25 +2254,25 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="n">
+      <c r="B7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2288,25 +2282,25 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2" t="n">
+      <c r="B8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2316,25 +2310,25 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="n">
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,25 +2338,25 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2" t="n">
+      <c r="B10" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2373,24 +2367,24 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2401,24 +2395,24 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2429,24 +2423,24 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2457,25 +2451,25 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2485,25 +2479,25 @@
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2512,26 +2506,26 @@
           <t>16:00</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="n">
+      <c r="B16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2540,26 +2534,26 @@
           <t>16:30</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="n">
+      <c r="B17" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2568,26 +2562,26 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2" t="n">
+      <c r="B18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2596,25 +2590,25 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2" t="n">
+      <c r="B19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2624,25 +2618,25 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2" t="n">
+      <c r="B20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2652,25 +2646,25 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2" t="n">
+      <c r="B21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2680,25 +2674,25 @@
           <t>19:00</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2" t="n">
+      <c r="B22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2709,24 +2703,24 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2737,24 +2731,24 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2764,25 +2758,25 @@
           <t>20:30</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="n">
+      <c r="B25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2792,25 +2786,25 @@
           <t>21:00</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C26" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F26" s="4" t="n">
-        <v>2</v>
+      <c r="B26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2820,25 +2814,25 @@
           <t>21:30</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C27" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D27" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" s="4" t="n">
-        <v>2</v>
+      <c r="B27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2849,24 +2843,24 @@
         </is>
       </c>
       <c r="B28" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3" t="n">
         <v>0</v>
       </c>
     </row>
